--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H2">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I2">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J2">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>109.3418594991745</v>
+        <v>137.0763058517778</v>
       </c>
       <c r="R2">
-        <v>984.07673549257</v>
+        <v>1233.686752666</v>
       </c>
       <c r="S2">
-        <v>0.06199298645985382</v>
+        <v>0.1274177863208488</v>
       </c>
       <c r="T2">
-        <v>0.08138759519494108</v>
+        <v>0.1425022149262821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H3">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I3">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J3">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
-        <v>92.82949341866136</v>
+        <v>156.2967163358666</v>
       </c>
       <c r="R3">
-        <v>835.4654407679521</v>
+        <v>1406.6704470228</v>
       </c>
       <c r="S3">
-        <v>0.05263105598292492</v>
+        <v>0.1452839094326636</v>
       </c>
       <c r="T3">
-        <v>0.06909676922557276</v>
+        <v>0.1624834293947888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H4">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I4">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J4">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>50.25657878039268</v>
+        <v>106.5897018991111</v>
       </c>
       <c r="R4">
-        <v>452.309209023534</v>
+        <v>959.3073170920001</v>
       </c>
       <c r="S4">
-        <v>0.02849371157690054</v>
+        <v>0.09907929584321939</v>
       </c>
       <c r="T4">
-        <v>0.03740801654916201</v>
+        <v>0.1108088558016715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H5">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I5">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J5">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>68.17101888790867</v>
+        <v>117.957110495675</v>
       </c>
       <c r="R5">
-        <v>409.026113327452</v>
+        <v>707.7426629740501</v>
       </c>
       <c r="S5">
-        <v>0.03865056868640933</v>
+        <v>0.1096457466282656</v>
       </c>
       <c r="T5">
-        <v>0.0338283088452365</v>
+        <v>0.08175081466480824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H6">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I6">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J6">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>56.73194638630734</v>
+        <v>109.3224526139333</v>
       </c>
       <c r="R6">
-        <v>510.5875174767661</v>
+        <v>983.9020735253999</v>
       </c>
       <c r="S6">
-        <v>0.03216501713320558</v>
+        <v>0.1016194944901385</v>
       </c>
       <c r="T6">
-        <v>0.04222789614388023</v>
+        <v>0.1136497773401074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J7">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N7">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O7">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P7">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q7">
-        <v>68.96979451631667</v>
+        <v>51.35361195613334</v>
       </c>
       <c r="R7">
-        <v>620.7281506468499</v>
+        <v>462.1825076052</v>
       </c>
       <c r="S7">
-        <v>0.03910344635780775</v>
+        <v>0.04773519036984992</v>
       </c>
       <c r="T7">
-        <v>0.05133702447062033</v>
+        <v>0.05338634859424097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J8">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P8">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q8">
-        <v>58.55425466024001</v>
+        <v>58.55425466024</v>
       </c>
       <c r="R8">
         <v>526.98829194216</v>
       </c>
       <c r="S8">
-        <v>0.03319820179522828</v>
+        <v>0.05442846932673058</v>
       </c>
       <c r="T8">
-        <v>0.04358431434271599</v>
+        <v>0.06087201526618582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J9">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N9">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O9">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P9">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q9">
-        <v>31.70044781983001</v>
+        <v>39.93225638693335</v>
       </c>
       <c r="R9">
-        <v>285.30403037847</v>
+        <v>359.3903074824</v>
       </c>
       <c r="S9">
-        <v>0.01797303833561438</v>
+        <v>0.03711859376427479</v>
       </c>
       <c r="T9">
-        <v>0.02359593321785566</v>
+        <v>0.04151290003609601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J10">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N10">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O10">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P10">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q10">
-        <v>43.00037685661</v>
+        <v>44.190888003735</v>
       </c>
       <c r="R10">
-        <v>258.00226113966</v>
+        <v>265.14532802241</v>
       </c>
       <c r="S10">
-        <v>0.02437970044089621</v>
+        <v>0.04107715837540162</v>
       </c>
       <c r="T10">
-        <v>0.0213379534661021</v>
+        <v>0.03062673441122567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J11">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N11">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O11">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P11">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q11">
-        <v>35.78492905367001</v>
+        <v>40.95604105132</v>
       </c>
       <c r="R11">
-        <v>322.06436148303</v>
+        <v>368.60436946188</v>
       </c>
       <c r="S11">
-        <v>0.02028879545722143</v>
+        <v>0.03807024164240215</v>
       </c>
       <c r="T11">
-        <v>0.02663617879959111</v>
+        <v>0.04257720930075051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H12">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I12">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J12">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N12">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O12">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P12">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q12">
-        <v>22.53922742758056</v>
+        <v>8.207456316733335</v>
       </c>
       <c r="R12">
-        <v>202.853046848225</v>
+        <v>73.86710685060001</v>
       </c>
       <c r="S12">
-        <v>0.01277894876796125</v>
+        <v>0.007629151578785896</v>
       </c>
       <c r="T12">
-        <v>0.01677686410570409</v>
+        <v>0.008532333117511106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H13">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I13">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J13">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.214408</v>
       </c>
       <c r="O13">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P13">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q13">
-        <v>19.13544431870667</v>
+        <v>9.358280147719999</v>
       </c>
       <c r="R13">
-        <v>172.21899886836</v>
+        <v>84.22452132948</v>
       </c>
       <c r="S13">
-        <v>0.01084912352859543</v>
+        <v>0.008698887329821952</v>
       </c>
       <c r="T13">
-        <v>0.01424328983629542</v>
+        <v>0.009728710156463986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H14">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I14">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J14">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N14">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O14">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P14">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q14">
-        <v>10.35965973188834</v>
+        <v>6.382068124133334</v>
       </c>
       <c r="R14">
-        <v>93.23693758699501</v>
+        <v>57.43861311720001</v>
       </c>
       <c r="S14">
-        <v>0.005873562498655836</v>
+        <v>0.005932381876450861</v>
       </c>
       <c r="T14">
-        <v>0.007711116277683439</v>
+        <v>0.006634690348912895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H15">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I15">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J15">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N15">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O15">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P15">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q15">
-        <v>14.05245992451833</v>
+        <v>7.062692750767501</v>
       </c>
       <c r="R15">
-        <v>84.31475954711</v>
+        <v>42.37615650460501</v>
       </c>
       <c r="S15">
-        <v>0.007967250253640335</v>
+        <v>0.006565049081058454</v>
       </c>
       <c r="T15">
-        <v>0.006973211815178406</v>
+        <v>0.004894837485220095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H16">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I16">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J16">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N16">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O16">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P16">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q16">
-        <v>11.69446219286167</v>
+        <v>6.545691822459999</v>
       </c>
       <c r="R16">
-        <v>105.250159735755</v>
+        <v>58.91122640214</v>
       </c>
       <c r="S16">
-        <v>0.006630348520667142</v>
+        <v>0.006084476502147573</v>
       </c>
       <c r="T16">
-        <v>0.008704664063101603</v>
+        <v>0.006804790785170583</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H17">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I17">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J17">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N17">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O17">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P17">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q17">
-        <v>290.5442663210134</v>
+        <v>32.48340873340667</v>
       </c>
       <c r="R17">
-        <v>1743.26559792608</v>
+        <v>194.90045240044</v>
       </c>
       <c r="S17">
-        <v>0.164728374389524</v>
+        <v>0.03019459860146447</v>
       </c>
       <c r="T17">
-        <v>0.1441759465335373</v>
+        <v>0.02251280245749416</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H18">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I18">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J18">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>104.214408</v>
       </c>
       <c r="O18">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P18">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q18">
-        <v>246.667444488448</v>
+        <v>37.038130615492</v>
       </c>
       <c r="R18">
-        <v>1480.004666930688</v>
+        <v>222.228783692952</v>
       </c>
       <c r="S18">
-        <v>0.1398517604904511</v>
+        <v>0.03442839069205367</v>
       </c>
       <c r="T18">
-        <v>0.1224030772950713</v>
+        <v>0.0256694771409229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H19">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I19">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J19">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N19">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O19">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P19">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q19">
-        <v>133.542276274016</v>
+        <v>25.25890110654667</v>
       </c>
       <c r="R19">
-        <v>801.2536576440961</v>
+        <v>151.55340663928</v>
       </c>
       <c r="S19">
-        <v>0.07571377112839058</v>
+        <v>0.02347913626570551</v>
       </c>
       <c r="T19">
-        <v>0.06626730008423816</v>
+        <v>0.0175058182954874</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H20">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I20">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J20">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N20">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O20">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P20">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q20">
-        <v>181.144703024672</v>
+        <v>27.95267212253175</v>
       </c>
       <c r="R20">
-        <v>724.578812098688</v>
+        <v>111.810688490127</v>
       </c>
       <c r="S20">
-        <v>0.102702671907345</v>
+        <v>0.02598310175835036</v>
       </c>
       <c r="T20">
-        <v>0.05992594369828445</v>
+        <v>0.01291516726417287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H21">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I21">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J21">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N21">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O21">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P21">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q21">
-        <v>150.748686873184</v>
+        <v>25.906489746206</v>
       </c>
       <c r="R21">
-        <v>904.4921212391041</v>
+        <v>155.438938477236</v>
       </c>
       <c r="S21">
-        <v>0.08546920042310602</v>
+        <v>0.02408109522862901</v>
       </c>
       <c r="T21">
-        <v>0.07480558778129714</v>
+        <v>0.01795463311162997</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H22">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I22">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J22">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N22">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O22">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P22">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q22">
-        <v>19.70732734013</v>
+        <v>5.982881586257778</v>
       </c>
       <c r="R22">
-        <v>177.36594606117</v>
+        <v>53.84593427632001</v>
       </c>
       <c r="S22">
-        <v>0.01117336107646688</v>
+        <v>0.005561322380288291</v>
       </c>
       <c r="T22">
-        <v>0.01466896563931955</v>
+        <v>0.006219702758880149</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H23">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I23">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J23">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>104.214408</v>
       </c>
       <c r="O23">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P23">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q23">
-        <v>16.731206346768</v>
+        <v>6.821782512650666</v>
       </c>
       <c r="R23">
-        <v>150.580857120912</v>
+        <v>61.396042613856</v>
       </c>
       <c r="S23">
-        <v>0.009486005206633973</v>
+        <v>0.006341113594526829</v>
       </c>
       <c r="T23">
-        <v>0.01245371768425124</v>
+        <v>0.007091810008720702</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H24">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I24">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J24">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N24">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O24">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P24">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q24">
-        <v>9.058039195206002</v>
+        <v>4.652252340871112</v>
       </c>
       <c r="R24">
-        <v>81.522352756854</v>
+        <v>41.87027106784</v>
       </c>
       <c r="S24">
-        <v>0.005135589460004295</v>
+        <v>0.004324450465719171</v>
       </c>
       <c r="T24">
-        <v>0.00674226714870257</v>
+        <v>0.004836403044644173</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H25">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I25">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J25">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N25">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O25">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P25">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q25">
-        <v>12.286864248402</v>
+        <v>5.148398331626</v>
       </c>
       <c r="R25">
-        <v>73.721185490412</v>
+        <v>30.890389989756</v>
       </c>
       <c r="S25">
-        <v>0.006966219638792571</v>
+        <v>0.004785637564693887</v>
       </c>
       <c r="T25">
-        <v>0.006097075345431858</v>
+        <v>0.003568125364047446</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H26">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I26">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J26">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N26">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O26">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P26">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q26">
-        <v>10.225132837494</v>
+        <v>4.771526958245333</v>
       </c>
       <c r="R26">
-        <v>92.026195537446</v>
+        <v>42.943742624208</v>
       </c>
       <c r="S26">
-        <v>0.005797290483703162</v>
+        <v>0.00443532088650891</v>
       </c>
       <c r="T26">
-        <v>0.007610982436225573</v>
+        <v>0.004960398924564445</v>
       </c>
     </row>
   </sheetData>
